--- a/Results/Excel_data_source.xlsx
+++ b/Results/Excel_data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borgn\OneDrive\Desktop\progetto_software\SEA_2024_Borgnino_Gemmani\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFA629D-C3D2-4B66-B271-EE335F3D9B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F142FFF-10B5-4229-B140-D0A32A52FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5ECE-47C3-A48A-5D0B10509ED6}"/>
+              <c16:uniqueId val="{00000000-ED2C-4870-B7B4-1E924E992FAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
